--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Itga7.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama1-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga7</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H2">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J2">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.03573685273186</v>
+        <v>5.636552333333334</v>
       </c>
       <c r="N2">
-        <v>5.03573685273186</v>
+        <v>16.909657</v>
       </c>
       <c r="O2">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="P2">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="Q2">
-        <v>1.650717024946364</v>
+        <v>0.1287012782777778</v>
       </c>
       <c r="R2">
-        <v>1.650717024946364</v>
+        <v>1.1583115045</v>
       </c>
       <c r="S2">
-        <v>0.08481750761466021</v>
+        <v>0.005307462436464546</v>
       </c>
       <c r="T2">
-        <v>0.08481750761466021</v>
+        <v>0.005307462436464547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H3">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J3">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.02706288045282</v>
+        <v>4.050135999999999</v>
       </c>
       <c r="N3">
-        <v>4.02706288045282</v>
+        <v>12.150408</v>
       </c>
       <c r="O3">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="P3">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="Q3">
-        <v>1.3200731991559</v>
+        <v>0.09247810533333332</v>
       </c>
       <c r="R3">
-        <v>1.3200731991559</v>
+        <v>0.8323029479999999</v>
       </c>
       <c r="S3">
-        <v>0.06782829335933729</v>
+        <v>0.003813668961334833</v>
       </c>
       <c r="T3">
-        <v>0.06782829335933729</v>
+        <v>0.003813668961334833</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H4">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J4">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.482023587301186</v>
+        <v>0.6741636666666667</v>
       </c>
       <c r="N4">
-        <v>0.482023587301186</v>
+        <v>2.022491</v>
       </c>
       <c r="O4">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="P4">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="Q4">
-        <v>0.1580075697466465</v>
+        <v>0.01539340372222222</v>
       </c>
       <c r="R4">
-        <v>0.1580075697466465</v>
+        <v>0.1385406335</v>
       </c>
       <c r="S4">
-        <v>0.008118779928737697</v>
+        <v>0.0006348026462386324</v>
       </c>
       <c r="T4">
-        <v>0.008118779928737697</v>
+        <v>0.0006348026462386324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.327800493397676</v>
+        <v>0.02283333333333333</v>
       </c>
       <c r="H5">
-        <v>0.327800493397676</v>
+        <v>0.06850000000000001</v>
       </c>
       <c r="I5">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813095</v>
       </c>
       <c r="J5">
-        <v>0.9036509614664425</v>
+        <v>0.05477178157813096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.1062279381414</v>
+        <v>47.807061</v>
       </c>
       <c r="N5">
-        <v>44.1062279381414</v>
+        <v>143.421183</v>
       </c>
       <c r="O5">
-        <v>0.8220943840508433</v>
+        <v>0.8218802864734033</v>
       </c>
       <c r="P5">
-        <v>0.8220943840508433</v>
+        <v>0.8218802864734033</v>
       </c>
       <c r="Q5">
-        <v>14.45804328003311</v>
+        <v>1.0915945595</v>
       </c>
       <c r="R5">
-        <v>14.45804328003311</v>
+        <v>9.824351035500001</v>
       </c>
       <c r="S5">
-        <v>0.7428863805637075</v>
+        <v>0.04501584753409294</v>
       </c>
       <c r="T5">
-        <v>0.7428863805637075</v>
+        <v>0.04501584753409294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H6">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J6">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.03573685273186</v>
+        <v>5.636552333333334</v>
       </c>
       <c r="N6">
-        <v>5.03573685273186</v>
+        <v>16.909657</v>
       </c>
       <c r="O6">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="P6">
-        <v>0.09386091669400602</v>
+        <v>0.09690140221006956</v>
       </c>
       <c r="Q6">
-        <v>0.17600268801403</v>
+        <v>1.913943952605111</v>
       </c>
       <c r="R6">
-        <v>0.17600268801403</v>
+        <v>17.225495573446</v>
       </c>
       <c r="S6">
-        <v>0.009043409079345812</v>
+        <v>0.07892839737011431</v>
       </c>
       <c r="T6">
-        <v>0.009043409079345812</v>
+        <v>0.07892839737011431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H7">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I7">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J7">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.02706288045282</v>
+        <v>4.050135999999999</v>
       </c>
       <c r="N7">
-        <v>4.02706288045282</v>
+        <v>12.150408</v>
       </c>
       <c r="O7">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="P7">
-        <v>0.07506027908083637</v>
+        <v>0.06962835335006774</v>
       </c>
       <c r="Q7">
-        <v>0.1407487945635429</v>
+        <v>1.375261480069333</v>
       </c>
       <c r="R7">
-        <v>0.1407487945635429</v>
+        <v>12.377353320624</v>
       </c>
       <c r="S7">
-        <v>0.00723198572149908</v>
+        <v>0.05671387839700211</v>
       </c>
       <c r="T7">
-        <v>0.00723198572149908</v>
+        <v>0.05671387839700212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.0349507317719649</v>
+        <v>0.3395593333333333</v>
       </c>
       <c r="H8">
-        <v>0.0349507317719649</v>
+        <v>1.018678</v>
       </c>
       <c r="I8">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751427</v>
       </c>
       <c r="J8">
-        <v>0.09634903853355745</v>
+        <v>0.8145227578751428</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.482023587301186</v>
+        <v>0.6741636666666667</v>
       </c>
       <c r="N8">
-        <v>0.482023587301186</v>
+        <v>2.022491</v>
       </c>
       <c r="O8">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="P8">
-        <v>0.008984420174314386</v>
+        <v>0.01158995796645939</v>
       </c>
       <c r="Q8">
-        <v>0.01684707710752406</v>
+        <v>0.2289185652108889</v>
       </c>
       <c r="R8">
-        <v>0.01684707710752406</v>
+        <v>2.060267086898</v>
       </c>
       <c r="S8">
-        <v>0.0008656402455766877</v>
+        <v>0.009440284526497483</v>
       </c>
       <c r="T8">
-        <v>0.0008656402455766877</v>
+        <v>0.009440284526497483</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3395593333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.018678</v>
+      </c>
+      <c r="I9">
+        <v>0.8145227578751427</v>
+      </c>
+      <c r="J9">
+        <v>0.8145227578751428</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>47.807061</v>
+      </c>
+      <c r="N9">
+        <v>143.421183</v>
+      </c>
+      <c r="O9">
+        <v>0.8218802864734033</v>
+      </c>
+      <c r="P9">
+        <v>0.8218802864734033</v>
+      </c>
+      <c r="Q9">
+        <v>16.233333761786</v>
+      </c>
+      <c r="R9">
+        <v>146.100003856074</v>
+      </c>
+      <c r="S9">
+        <v>0.6694401975815288</v>
+      </c>
+      <c r="T9">
+        <v>0.6694401975815288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.163466</v>
+      </c>
+      <c r="I10">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J10">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.636552333333334</v>
+      </c>
+      <c r="N10">
+        <v>16.909657</v>
+      </c>
+      <c r="O10">
+        <v>0.09690140221006956</v>
+      </c>
+      <c r="P10">
+        <v>0.09690140221006956</v>
+      </c>
+      <c r="Q10">
+        <v>0.3071282212402223</v>
+      </c>
+      <c r="R10">
+        <v>2.764153991162</v>
+      </c>
+      <c r="S10">
+        <v>0.01266554240349071</v>
+      </c>
+      <c r="T10">
+        <v>0.01266554240349071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.0349507317719649</v>
-      </c>
-      <c r="H9">
-        <v>0.0349507317719649</v>
-      </c>
-      <c r="I9">
-        <v>0.09634903853355745</v>
-      </c>
-      <c r="J9">
-        <v>0.09634903853355745</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>44.1062279381414</v>
-      </c>
-      <c r="N9">
-        <v>44.1062279381414</v>
-      </c>
-      <c r="O9">
-        <v>0.8220943840508433</v>
-      </c>
-      <c r="P9">
-        <v>0.8220943840508433</v>
-      </c>
-      <c r="Q9">
-        <v>1.541544942139125</v>
-      </c>
-      <c r="R9">
-        <v>1.541544942139125</v>
-      </c>
-      <c r="S9">
-        <v>0.07920800348713587</v>
-      </c>
-      <c r="T9">
-        <v>0.07920800348713587</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.163466</v>
+      </c>
+      <c r="I11">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J11">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.050135999999999</v>
+      </c>
+      <c r="N11">
+        <v>12.150408</v>
+      </c>
+      <c r="O11">
+        <v>0.06962835335006774</v>
+      </c>
+      <c r="P11">
+        <v>0.06962835335006774</v>
+      </c>
+      <c r="Q11">
+        <v>0.2206865104586666</v>
+      </c>
+      <c r="R11">
+        <v>1.986178594128</v>
+      </c>
+      <c r="S11">
+        <v>0.0091008059917308</v>
+      </c>
+      <c r="T11">
+        <v>0.009100805991730802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.163466</v>
+      </c>
+      <c r="I12">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J12">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6741636666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.022491</v>
+      </c>
+      <c r="O12">
+        <v>0.01158995796645939</v>
+      </c>
+      <c r="P12">
+        <v>0.01158995796645939</v>
+      </c>
+      <c r="Q12">
+        <v>0.03673427931177778</v>
+      </c>
+      <c r="R12">
+        <v>0.330608513806</v>
+      </c>
+      <c r="S12">
+        <v>0.001514870793723274</v>
+      </c>
+      <c r="T12">
+        <v>0.001514870793723274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.05448866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.163466</v>
+      </c>
+      <c r="I13">
+        <v>0.1307054605467263</v>
+      </c>
+      <c r="J13">
+        <v>0.1307054605467264</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>47.807061</v>
+      </c>
+      <c r="N13">
+        <v>143.421183</v>
+      </c>
+      <c r="O13">
+        <v>0.8218802864734033</v>
+      </c>
+      <c r="P13">
+        <v>0.8218802864734033</v>
+      </c>
+      <c r="Q13">
+        <v>2.604943011142</v>
+      </c>
+      <c r="R13">
+        <v>23.444487100278</v>
+      </c>
+      <c r="S13">
+        <v>0.1074242413577815</v>
+      </c>
+      <c r="T13">
+        <v>0.1074242413577816</v>
       </c>
     </row>
   </sheetData>
